--- a/Bloodmatrices.xlsx
+++ b/Bloodmatrices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csciitd-my.sharepoint.com/personal/srz188304_iitd_ac_in/Documents/Documents/GitHub/DiagnosticsPy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_EC8D0E947820D6006A66D67C6E35594FAEADC9AB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFB9A8A6-C531-4044-A708-F2465F098FF2}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_F9D9CC9A7820D6A0EE4D06E7F21BAE50BF1F28DD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{420EAAA4-5AEE-48A9-B104-3BE8CCCF6AA2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -466,7 +466,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C9"/>
+      <selection activeCell="B2" sqref="B2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,10 +484,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C2">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -495,7 +495,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C3">
         <v>19</v>
@@ -506,10 +506,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="C4">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -517,10 +517,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -528,10 +528,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -539,10 +539,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="C7">
-        <v>70</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -550,10 +550,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -561,10 +561,10 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -595,10 +595,10 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -606,10 +606,10 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>70</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -622,7 +622,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,7 +640,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2">
-        <v>0.72033898305084743</v>
+        <v>0.54054054054054057</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -648,7 +648,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2">
-        <v>0.78947368421052633</v>
+        <v>0.89473684210526316</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -656,7 +656,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2">
-        <v>0.70707070707070707</v>
+        <v>0.46739130434782611</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -664,7 +664,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2">
-        <v>0.34090909090909088</v>
+        <v>0.25757575757575762</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -672,7 +672,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2">
-        <v>0.78947368421052633</v>
+        <v>0.89473684210526316</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -680,7 +680,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2">
-        <v>0.47619047619047622</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -688,7 +688,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2">
-        <v>0.34090909090909088</v>
+        <v>0.25757575757575762</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -696,7 +696,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2">
-        <v>0.94594594594594594</v>
+        <v>0.9555555555555556</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -704,7 +704,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2">
-        <v>2.6950998185117969</v>
+        <v>1.679914070891515</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -712,7 +712,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2">
-        <v>0.29774436090225559</v>
+        <v>0.2252141982864137</v>
       </c>
     </row>
   </sheetData>

--- a/Bloodmatrices.xlsx
+++ b/Bloodmatrices.xlsx
@@ -1,128 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csciitd-my.sharepoint.com/personal/srz188304_iitd_ac_in/Documents/Documents/GitHub/DiagnosticsPy/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_F9D9CC9A7820D6A0EE4D06E7F21BAE50BF1F28DD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{420EAAA4-5AEE-48A9-B104-3BE8CCCF6AA2}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="SamplesDetail" sheetId="1" r:id="rId1"/>
-    <sheet name="ConfusionMatrix" sheetId="2" r:id="rId2"/>
-    <sheet name="Scores" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SamplesDetail" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConfusionMatrix" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pvalues" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>RAMJA</t>
-  </si>
-  <si>
-    <t>AIIMS</t>
-  </si>
-  <si>
-    <t>Total common samples</t>
-  </si>
-  <si>
-    <t>Positive</t>
-  </si>
-  <si>
-    <t>Negative</t>
-  </si>
-  <si>
-    <t>Common Positive</t>
-  </si>
-  <si>
-    <t>Concordance [Common bacteria]</t>
-  </si>
-  <si>
-    <t>Common Negative</t>
-  </si>
-  <si>
-    <t>RAMJA Positive and AIIMS Negative</t>
-  </si>
-  <si>
-    <t>RAMJA Negative and AIIMS Positive</t>
-  </si>
-  <si>
-    <t>AIIMS Positive</t>
-  </si>
-  <si>
-    <t>AIIMS Negative</t>
-  </si>
-  <si>
-    <t>RAMJA Positive</t>
-  </si>
-  <si>
-    <t>RAMJA Negative</t>
-  </si>
-  <si>
-    <t>Scores</t>
-  </si>
-  <si>
-    <t>Accuracy</t>
-  </si>
-  <si>
-    <t>Sensitivity</t>
-  </si>
-  <si>
-    <t>Specificity</t>
-  </si>
-  <si>
-    <t>Precision</t>
-  </si>
-  <si>
-    <t>Recall</t>
-  </si>
-  <si>
-    <t>F1 Score</t>
-  </si>
-  <si>
-    <t>PPV</t>
-  </si>
-  <si>
-    <t>NPV</t>
-  </si>
-  <si>
-    <t>PLR</t>
-  </si>
-  <si>
-    <t>NLR</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -137,44 +49,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -462,108 +423,132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C9"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>RAMJA</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>AIIMS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Total common samples</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>111</v>
+      </c>
+      <c r="C2" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>66</v>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>45</v>
+      </c>
+      <c r="C4" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Common Positive</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>17</v>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Concordance [Common bacteria]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Common Negative</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>43</v>
+      </c>
+      <c r="C7" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RAMJA Positive and AIIMS Negative</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>49</v>
+      </c>
+      <c r="C8" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RAMJA Negative and AIIMS Positive</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>111</v>
-      </c>
-      <c r="C2">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>66</v>
-      </c>
-      <c r="C3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>45</v>
-      </c>
-      <c r="C4">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>17</v>
-      </c>
-      <c r="C5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>43</v>
-      </c>
-      <c r="C7">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>49</v>
-      </c>
-      <c r="C8">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
     </row>
@@ -573,42 +558,54 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C3"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AIIMS Positive</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>AIIMS Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RAMJA Positive</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>17</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RAMJA Negative</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>43</v>
       </c>
     </row>
@@ -618,101 +615,194 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.54054054054054057</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.89473684210526316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.46739130434782611</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.25757575757575762</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.89473684210526316</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Scores</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5405405405405406</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Sensitivity</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Specificity</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4673913043478261</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2575757575757576</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.25757575757575762</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="2">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>PPV</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.2575757575757576</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>NPV</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>0.9555555555555556</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="2">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>PLR</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>1.679914070891515</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="2">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>NLR</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>0.2252141982864137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Z Score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>P Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Sensitivity</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.69925545979616</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.04463553040491115</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Specificity</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.045201660746818</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1479648880294349</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.474991525399383</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.07010741091405112</v>
       </c>
     </row>
   </sheetData>

--- a/Bloodmatrices.xlsx
+++ b/Bloodmatrices.xlsx
@@ -1,40 +1,138 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csciitd-my.sharepoint.com/personal/srz188304_iitd_ac_in/Documents/Documents/GitHub/DiagnosticsPy/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_CC2A03197E899675C7DD557CD4789BCA3530BC98" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F66188B-F8B7-4B2B-AD14-8196EFD01C8E}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SamplesDetail" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConfusionMatrix" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pvalues" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="SamplesDetail" sheetId="1" r:id="rId1"/>
+    <sheet name="ConfusionMatrix" sheetId="2" r:id="rId2"/>
+    <sheet name="Scores" sheetId="3" r:id="rId3"/>
+    <sheet name="Pvalues" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+  <si>
+    <t>RAMJA</t>
+  </si>
+  <si>
+    <t>AIIMS</t>
+  </si>
+  <si>
+    <t>Total common samples</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Common Positive</t>
+  </si>
+  <si>
+    <t>Concordance [Common bacteria]</t>
+  </si>
+  <si>
+    <t>Common Negative</t>
+  </si>
+  <si>
+    <t>RAMJA Positive and AIIMS Negative</t>
+  </si>
+  <si>
+    <t>RAMJA Negative and AIIMS Positive</t>
+  </si>
+  <si>
+    <t>AIIMS Positive</t>
+  </si>
+  <si>
+    <t>AIIMS Negative</t>
+  </si>
+  <si>
+    <t>RAMJA Positive</t>
+  </si>
+  <si>
+    <t>RAMJA Negative</t>
+  </si>
+  <si>
+    <t>Scores</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Sensitivity</t>
+  </si>
+  <si>
+    <t>Specificity</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>F1 Score</t>
+  </si>
+  <si>
+    <t>PPV</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>PLR</t>
+  </si>
+  <si>
+    <t>NLR</t>
+  </si>
+  <si>
+    <t>Z Score</t>
+  </si>
+  <si>
+    <t>P Value</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,93 +147,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -423,132 +472,106 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>RAMJA</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>AIIMS</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Total common samples</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
         <v>111</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>111</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
         <v>66</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>19</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
         <v>45</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>92</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Common Positive</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
         <v>17</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>17</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Concordance [Common bacteria]</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="n">
+      <c r="B6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Common Negative</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+      <c r="C6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
         <v>43</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>43</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>RAMJA Positive and AIIMS Negative</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
         <v>49</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>49</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>RAMJA Negative and AIIMS Positive</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>2</v>
       </c>
     </row>
@@ -558,54 +581,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>AIIMS Positive</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>AIIMS Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>RAMJA Positive</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
         <v>17</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>49</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>RAMJA Negative</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>43</v>
       </c>
     </row>
@@ -615,123 +624,95 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Scores</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Accuracy</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.5405405405405406</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Sensitivity</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.8947368421052632</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Specificity</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.4673913043478261</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Precision</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.2575757575757576</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Recall</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.8947368421052632</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>F1 Score</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>0.54054054054054057</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>0.89473684210526316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>0.46739130434782611</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>0.25757575757575762</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>0.89473684210526316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
         <v>0.4</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>PPV</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.2575757575757576</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>NPV</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>0.25757575757575762</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
         <v>0.9555555555555556</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>PLR</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
         <v>1.679914070891515</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>NLR</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
         <v>0.2252141982864137</v>
       </c>
     </row>
@@ -741,68 +722,54 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Z Score</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>P Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Sensitivity</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2">
         <v>1.69925545979616</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.04463553040491115</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Specificity</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="C2" s="2">
+        <v>4.4635530404911153E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2">
         <v>1.045201660746818</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.1479648880294349</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Common</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1.474991525399383</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.07010741091405112</v>
+      <c r="C3" s="2">
+        <v>0.14796488802943489</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1.4749915253993831</v>
+      </c>
+      <c r="C4" s="2">
+        <v>7.0107410914051121E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Bloodmatrices.xlsx
+++ b/Bloodmatrices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csciitd-my.sharepoint.com/personal/srz188304_iitd_ac_in/Documents/Documents/GitHub/DiagnosticsPy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_CC2A03197E899675C7DD557CD4789BCA3530BC98" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F66188B-F8B7-4B2B-AD14-8196EFD01C8E}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_2595821743B1D14933DD55B7340513EF93DEB5BE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A400DBD-E525-482F-A78B-222D495F0638}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -475,7 +475,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -492,10 +494,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="C2">
-        <v>111</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -503,10 +505,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C3">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -514,10 +516,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="C4">
-        <v>92</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -525,10 +527,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -536,10 +538,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -547,10 +549,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="C7">
-        <v>43</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -558,10 +560,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C8">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -569,10 +571,10 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +586,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -601,10 +605,10 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C2">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -612,10 +616,10 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>43</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -627,7 +631,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -640,80 +646,80 @@
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2">
-        <v>0.54054054054054057</v>
+      <c r="B2" s="2">
+        <v>0.64814814814814814</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3">
-        <v>0.89473684210526316</v>
+      <c r="B3" s="2">
+        <v>0.80769230769230771</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4">
-        <v>0.46739130434782611</v>
+      <c r="B4" s="2">
+        <v>0.61764705882352944</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5">
-        <v>0.25757575757575762</v>
+      <c r="B5" s="2">
+        <v>0.28767123287671231</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6">
-        <v>0.89473684210526316</v>
+      <c r="B6" s="2">
+        <v>0.80769230769230771</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7">
-        <v>0.4</v>
+      <c r="B7" s="2">
+        <v>0.4242424242424242</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8">
-        <v>0.25757575757575762</v>
+      <c r="B8" s="2">
+        <v>0.28767123287671231</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9">
-        <v>0.9555555555555556</v>
+      <c r="B9" s="2">
+        <v>0.9438202247191011</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B10">
-        <v>1.679914070891515</v>
+      <c r="B10" s="2">
+        <v>2.1124260355029589</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B11">
-        <v>0.2252141982864137</v>
+      <c r="B11" s="2">
+        <v>0.3113553113553113</v>
       </c>
     </row>
   </sheetData>
@@ -744,10 +750,10 @@
         <v>16</v>
       </c>
       <c r="B2" s="2">
-        <v>1.69925545979616</v>
+        <v>1.598524319489697</v>
       </c>
       <c r="C2" s="2">
-        <v>4.4635530404911153E-2</v>
+        <v>5.4963168742033879E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -755,10 +761,10 @@
         <v>17</v>
       </c>
       <c r="B3" s="2">
-        <v>1.045201660746818</v>
+        <v>1.2963973749765749</v>
       </c>
       <c r="C3" s="2">
-        <v>0.14796488802943489</v>
+        <v>9.7419307998048432E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -766,10 +772,10 @@
         <v>27</v>
       </c>
       <c r="B4" s="2">
-        <v>1.4749915253993831</v>
+        <v>1.7819090885901001</v>
       </c>
       <c r="C4" s="2">
-        <v>7.0107410914051121E-2</v>
+        <v>3.738202909493523E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Bloodmatrices.xlsx
+++ b/Bloodmatrices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csciitd-my.sharepoint.com/personal/srz188304_iitd_ac_in/Documents/Documents/GitHub/DiagnosticsPy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_2595821743B1D14933DD55B7340513EF93DEB5BE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A400DBD-E525-482F-A78B-222D495F0638}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_C8DA02081719944EFBDD551784E99D281CB8AB1E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B33E1B7B-EEEA-444D-8E57-A350D58CB200}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>RAMJA</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>Total common samples</t>
+  </si>
+  <si>
+    <t>Control samples</t>
   </si>
   <si>
     <t>Positive</t>
@@ -473,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C9"/>
+      <selection activeCell="B2" sqref="B2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,10 +497,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="C2">
-        <v>162</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -505,10 +508,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -516,10 +519,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C4">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -527,10 +530,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -538,10 +541,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -549,10 +552,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>84</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -560,10 +563,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="C8">
-        <v>52</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -571,10 +574,21 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -594,32 +608,32 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -639,87 +653,87 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2">
-        <v>0.64814814814814814</v>
+        <v>0.60824742268041232</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2">
-        <v>0.80769230769230771</v>
+        <v>0.7857142857142857</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2">
-        <v>0.61764705882352944</v>
+        <v>0.57831325301204817</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2">
-        <v>0.28767123287671231</v>
+        <v>0.2391304347826087</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2">
-        <v>0.80769230769230771</v>
+        <v>0.7857142857142857</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2">
-        <v>0.4242424242424242</v>
+        <v>0.36666666666666659</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2">
-        <v>0.28767123287671231</v>
+        <v>0.2391304347826087</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2">
-        <v>0.9438202247191011</v>
+        <v>0.94117647058823528</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2">
-        <v>2.1124260355029589</v>
+        <v>1.8632653061224489</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2">
-        <v>0.3113553113553113</v>
+        <v>0.37053571428571441</v>
       </c>
     </row>
   </sheetData>
@@ -739,43 +753,43 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2">
-        <v>1.598524319489697</v>
+        <v>1.6801767583781</v>
       </c>
       <c r="C2" s="2">
-        <v>5.4963168742033879E-2</v>
+        <v>4.6461464960542348E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2">
-        <v>1.2963973749765749</v>
+        <v>1.396070527110528</v>
       </c>
       <c r="C3" s="2">
-        <v>9.7419307998048432E-2</v>
+        <v>8.1346629035964846E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2">
-        <v>1.7819090885901001</v>
+        <v>1.949974358805777</v>
       </c>
       <c r="C4" s="2">
-        <v>3.738202909493523E-2</v>
+        <v>2.5589587639274311E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Bloodmatrices.xlsx
+++ b/Bloodmatrices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csciitd-my.sharepoint.com/personal/srz188304_iitd_ac_in/Documents/Documents/GitHub/DiagnosticsPy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_C8DA02081719944EFBDD551784E99D281CB8AB1E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B33E1B7B-EEEA-444D-8E57-A350D58CB200}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_AF0BE2188F51D1653DDD55F00C1A63C2043861BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA633864-0F08-4682-BDC4-B7F45916FB11}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -522,7 +522,7 @@
         <v>92</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -533,7 +533,7 @@
         <v>102</v>
       </c>
       <c r="C5">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -541,10 +541,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -574,10 +574,10 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C9">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -619,10 +619,10 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -646,7 +646,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B11"/>
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,7 +661,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="2">
-        <v>0.60824742268041232</v>
+        <v>0.62886597938144329</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -669,7 +669,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="2">
-        <v>0.7857142857142857</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -677,7 +677,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="2">
-        <v>0.57831325301204817</v>
+        <v>0.59259259259259256</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -685,7 +685,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="2">
-        <v>0.2391304347826087</v>
+        <v>0.28260869565217389</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -693,7 +693,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="2">
-        <v>0.7857142857142857</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -701,7 +701,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="2">
-        <v>0.36666666666666659</v>
+        <v>0.41935483870967738</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -709,7 +709,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="2">
-        <v>0.2391304347826087</v>
+        <v>0.28260869565217389</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -725,7 +725,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="2">
-        <v>1.8632653061224489</v>
+        <v>1.9943181818181821</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -733,7 +733,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="2">
-        <v>0.37053571428571441</v>
+        <v>0.31640625</v>
       </c>
     </row>
   </sheetData>
@@ -746,7 +746,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C4"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,10 +764,10 @@
         <v>17</v>
       </c>
       <c r="B2" s="2">
-        <v>1.6801767583781</v>
+        <v>1.766328946917292</v>
       </c>
       <c r="C2" s="2">
-        <v>4.6461464960542348E-2</v>
+        <v>3.8670338958018732E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -775,10 +775,10 @@
         <v>18</v>
       </c>
       <c r="B3" s="2">
-        <v>1.396070527110528</v>
+        <v>1.403108764332065</v>
       </c>
       <c r="C3" s="2">
-        <v>8.1346629035964846E-2</v>
+        <v>8.0292204028396041E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
